--- a/HarrisCornerDetection/Reports/Board/Timestamps.xlsx
+++ b/HarrisCornerDetection/Reports/Board/Timestamps.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Original" sheetId="4" r:id="rId1"/>
+    <sheet name="Optimized1" sheetId="1" r:id="rId2"/>
+    <sheet name="Optimized2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -46,13 +48,68 @@
   </si>
   <si>
     <t>OrderStatisticFilteringSpecialized</t>
+  </si>
+  <si>
+    <t>Convolution2D</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>_OPTIMIZATION_CONVOLUTION_000</t>
+  </si>
+  <si>
+    <t>_OPTIMIZATION_CONVOLUTION_010</t>
+  </si>
+  <si>
+    <t>_OPTIMIZATION_CONVOLUTION_011</t>
+  </si>
+  <si>
+    <t>_OPTIMIZATION_CONVOLUTION_012</t>
+  </si>
+  <si>
+    <t>_OPTIMIZATION_CONVOLUTION_020</t>
+  </si>
+  <si>
+    <t>_OPTIMIZATION_CONVOLUTION_021</t>
+  </si>
+  <si>
+    <t>_OPTIMIZATION_CONVOLUTION_000_010_021</t>
+  </si>
+  <si>
+    <t>_OPTIMIZATION_GET</t>
+  </si>
+  <si>
+    <t>_OPTIMIZATION_GET_CONVOLUTION_000_010_021</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Perfomance</t>
+  </si>
+  <si>
+    <t>Optimized 1</t>
+  </si>
+  <si>
+    <t>OrderStatisticFiltering</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,14 +135,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -363,22 +424,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G4"/>
+  <dimension ref="B2:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -397,8 +458,11 @@
       <c r="G2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -406,41 +470,768 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>8103591</v>
+        <v>91237641</v>
       </c>
       <c r="E3">
-        <v>971944.9375</v>
+        <v>10943045</v>
       </c>
       <c r="F3">
         <f>E3/10^3</f>
-        <v>971.94493750000004</v>
+        <v>10943.045</v>
       </c>
       <c r="G3">
         <f>E3/10^6</f>
-        <v>0.97194493749999999</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+        <v>10.943045</v>
+      </c>
+      <c r="H3" s="1">
+        <f>D3/$D$3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>5987666</v>
+        <v>50700022</v>
       </c>
       <c r="E4">
-        <v>718160.8125</v>
+        <v>6080962.5</v>
       </c>
       <c r="F4">
         <f>E4/10^3</f>
-        <v>718.16081250000002</v>
+        <v>6080.9624999999996</v>
       </c>
       <c r="G4">
         <f>E4/10^6</f>
-        <v>0.71816081249999997</v>
-      </c>
+        <v>6.0809625</v>
+      </c>
+      <c r="H4" s="1">
+        <f>D4/$D$3</f>
+        <v>0.55569194297778923</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>39498861</v>
+      </c>
+      <c r="E5">
+        <v>4737494.5</v>
+      </c>
+      <c r="F5">
+        <f>E5/10^3</f>
+        <v>4737.4944999999998</v>
+      </c>
+      <c r="G5">
+        <f>E5/10^6</f>
+        <v>4.7374945000000004</v>
+      </c>
+      <c r="H5" s="1">
+        <f>D5/$D$3</f>
+        <v>0.43292286568435062</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="2">
+        <f>SUM(H4:H5)</f>
+        <v>0.9886148086621398</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>47639862</v>
+      </c>
+      <c r="E3">
+        <v>5713926.5</v>
+      </c>
+      <c r="F3">
+        <f>E3/10^3</f>
+        <v>5713.9264999999996</v>
+      </c>
+      <c r="G3">
+        <f>E3/10^6</f>
+        <v>5.7139265000000004</v>
+      </c>
+      <c r="H3" s="1">
+        <f>D3/$D$3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>6083310</v>
+      </c>
+      <c r="E4">
+        <v>729632.375</v>
+      </c>
+      <c r="F4">
+        <f>E4/10^3</f>
+        <v>729.63237500000002</v>
+      </c>
+      <c r="G4">
+        <f>E4/10^6</f>
+        <v>0.729632375</v>
+      </c>
+      <c r="H4" s="1">
+        <f>D4/$D$3</f>
+        <v>0.12769369483060217</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>39498861</v>
+      </c>
+      <c r="E5">
+        <v>4737494.5</v>
+      </c>
+      <c r="F5">
+        <f>E5/10^3</f>
+        <v>4737.4944999999998</v>
+      </c>
+      <c r="G5">
+        <f>E5/10^6</f>
+        <v>4.7374945000000004</v>
+      </c>
+      <c r="H5" s="1">
+        <f>D5/$D$3</f>
+        <v>0.82911367375497436</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="2">
+        <f>SUM(H4:H5)</f>
+        <v>0.95680736858557647</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>38959051</v>
+      </c>
+      <c r="E9">
+        <v>4672750</v>
+      </c>
+      <c r="F9">
+        <f>E9/10^3</f>
+        <v>4672.75</v>
+      </c>
+      <c r="G9">
+        <f>E9/10^6</f>
+        <v>4.6727499999999997</v>
+      </c>
+      <c r="H9" s="1">
+        <f>($D$5-D9)/$D$5</f>
+        <v>1.3666470028085114E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>37416826</v>
+      </c>
+      <c r="E10">
+        <v>4487775</v>
+      </c>
+      <c r="F10">
+        <f>E10/10^3</f>
+        <v>4487.7749999999996</v>
+      </c>
+      <c r="G10">
+        <f>E10/10^6</f>
+        <v>4.4877750000000001</v>
+      </c>
+      <c r="H10" s="1">
+        <f>($D$5-D10)/$D$5</f>
+        <v>5.271126678817397E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>45925322</v>
+      </c>
+      <c r="E11">
+        <v>5508284.5</v>
+      </c>
+      <c r="F11">
+        <f>E11/10^3</f>
+        <v>5508.2844999999998</v>
+      </c>
+      <c r="G11">
+        <f>E11/10^6</f>
+        <v>5.5082845000000002</v>
+      </c>
+      <c r="H11" s="1">
+        <f>($D$5-D11)/$D$5</f>
+        <v>-0.16269990671376575</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>38376743</v>
+      </c>
+      <c r="E12">
+        <v>4602908</v>
+      </c>
+      <c r="F12">
+        <f>E12/10^3</f>
+        <v>4602.9080000000004</v>
+      </c>
+      <c r="G12">
+        <f>E12/10^6</f>
+        <v>4.6029080000000002</v>
+      </c>
+      <c r="H12" s="1">
+        <f>($D$5-D12)/$D$5</f>
+        <v>2.8408869815258725E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>12458283</v>
+      </c>
+      <c r="E13">
+        <v>1494246.875</v>
+      </c>
+      <c r="F13">
+        <f>E13/10^3</f>
+        <v>1494.246875</v>
+      </c>
+      <c r="G13">
+        <f>E13/10^6</f>
+        <v>1.494246875</v>
+      </c>
+      <c r="H13" s="1">
+        <f>($D$5-D13)/$D$5</f>
+        <v>0.68459133543116601</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>11039037</v>
+      </c>
+      <c r="E14">
+        <v>1324022.375</v>
+      </c>
+      <c r="F14">
+        <f>E14/10^3</f>
+        <v>1324.022375</v>
+      </c>
+      <c r="G14">
+        <f>E14/10^6</f>
+        <v>1.324022375</v>
+      </c>
+      <c r="H14" s="1">
+        <f>($D$5-D14)/$D$5</f>
+        <v>0.72052265000755333</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>10238561</v>
+      </c>
+      <c r="E15">
+        <v>1228013.375</v>
+      </c>
+      <c r="F15">
+        <f>E15/10^3</f>
+        <v>1228.013375</v>
+      </c>
+      <c r="G15">
+        <f>E15/10^6</f>
+        <v>1.228013375</v>
+      </c>
+      <c r="H15" s="1">
+        <f>($D$5-D15)/$D$5</f>
+        <v>0.74078844957073575</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>18369527</v>
+      </c>
+      <c r="E16">
+        <v>2203241.75</v>
+      </c>
+      <c r="F16">
+        <f>E16/10^3</f>
+        <v>2203.2417500000001</v>
+      </c>
+      <c r="G16">
+        <f>E16/10^6</f>
+        <v>2.2032417500000001</v>
+      </c>
+      <c r="H16" s="1">
+        <f>($D$3-D16)/$D$3</f>
+        <v>0.61440847582639935</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>20718322</v>
+      </c>
+      <c r="E19">
+        <v>2484956.25</v>
+      </c>
+      <c r="F19">
+        <f>E19/10^3</f>
+        <v>2484.9562500000002</v>
+      </c>
+      <c r="G19">
+        <f>E19/10^6</f>
+        <v>2.4849562500000002</v>
+      </c>
+      <c r="H19" s="1">
+        <f>($D$3-D19)/$D$3</f>
+        <v>0.56510533132946528</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>12616009</v>
+      </c>
+      <c r="E20">
+        <v>1513164.5</v>
+      </c>
+      <c r="F20">
+        <f>E20/10^3</f>
+        <v>1513.1645000000001</v>
+      </c>
+      <c r="G20">
+        <f>E20/10^6</f>
+        <v>1.5131645</v>
+      </c>
+      <c r="H20" s="1">
+        <f>($D$5-D20)/$D$5</f>
+        <v>0.6805981569949574</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>18340253</v>
+      </c>
+      <c r="E3">
+        <v>2199730.25</v>
+      </c>
+      <c r="F3">
+        <f>E3/10^3</f>
+        <v>2199.7302500000001</v>
+      </c>
+      <c r="G3">
+        <f>E3/10^6</f>
+        <v>2.19973025</v>
+      </c>
+      <c r="H3" s="1">
+        <f>D3/$D$3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>5991334</v>
+      </c>
+      <c r="E4">
+        <v>718600.75</v>
+      </c>
+      <c r="F4">
+        <f>E4/10^3</f>
+        <v>718.60074999999995</v>
+      </c>
+      <c r="G4">
+        <f>E4/10^6</f>
+        <v>0.71860075000000001</v>
+      </c>
+      <c r="H4" s="1">
+        <f>D4/$D$3</f>
+        <v>0.32667673668405772</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>9304177</v>
+      </c>
+      <c r="E5">
+        <v>1115943.25</v>
+      </c>
+      <c r="F5">
+        <f>E5/10^3</f>
+        <v>1115.94325</v>
+      </c>
+      <c r="G5">
+        <f>E5/10^6</f>
+        <v>1.1159432499999999</v>
+      </c>
+      <c r="H5" s="1">
+        <f>D5/$D$3</f>
+        <v>0.50730908673942499</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="2">
+        <f>SUM(H4:H5)</f>
+        <v>0.83398582342348271</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HarrisCornerDetection/Reports/Board/Timestamps.xlsx
+++ b/HarrisCornerDetection/Reports/Board/Timestamps.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="4" r:id="rId1"/>
     <sheet name="Optimized1" sheetId="1" r:id="rId2"/>
     <sheet name="Optimized2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -86,16 +86,40 @@
     <t>_OPTIMIZATION_GET_CONVOLUTION_000_010_021</t>
   </si>
   <si>
-    <t>Performance</t>
-  </si>
-  <si>
-    <t>Perfomance</t>
-  </si>
-  <si>
     <t>Optimized 1</t>
   </si>
   <si>
     <t>OrderStatisticFiltering</t>
+  </si>
+  <si>
+    <t>Performance Gain</t>
+  </si>
+  <si>
+    <t>Speedup</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>_OPTIMIZATION_ORDER_STATISTIC_FILTERING_SPECIALIZED_001</t>
+  </si>
+  <si>
+    <t>_OPTIMIZATION_ORDER_STATISTIC_FILTERING_SPECIALIZED_000</t>
+  </si>
+  <si>
+    <t>_OPTIMIZATION_CONVOLUTION_022</t>
+  </si>
+  <si>
+    <t>_OPTIMIZATION_CONVOLUTION_001</t>
+  </si>
+  <si>
+    <t>_OPTIMIZATION_CONVOLUTION_002</t>
+  </si>
+  <si>
+    <t>_OPTIMIZATION_CONVOLUTION_00X_010_02X</t>
+  </si>
+  <si>
+    <t>_OPTIMIZATION_CONVOLUTION_00X_010_02X_GET</t>
   </si>
 </sst>
 </file>
@@ -139,10 +163,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -237,6 +262,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -272,6 +314,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -493,7 +552,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>50700022</v>
@@ -604,10 +663,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H26"/>
+  <dimension ref="B2:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,9 +676,10 @@
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -641,10 +701,13 @@
       <c r="H2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -667,10 +730,14 @@
         <f>D3/$D$3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <f>(Original!D3-D3)/Original!D3</f>
+        <v>0.47784859979008004</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -693,10 +760,14 @@
         <f>D4/$D$3</f>
         <v>0.12769369483060217</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <f>(Original!D4-D4)/Original!D4</f>
+        <v>0.88001366153253346</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -720,7 +791,7 @@
         <v>0.82911367375497436</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -729,7 +800,7 @@
         <v>0.95680736858557647</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -749,10 +820,10 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -766,19 +837,19 @@
         <v>4672750</v>
       </c>
       <c r="F9">
-        <f>E9/10^3</f>
+        <f t="shared" ref="F9:F16" si="0">E9/10^3</f>
         <v>4672.75</v>
       </c>
       <c r="G9">
-        <f>E9/10^6</f>
+        <f t="shared" ref="G9:G16" si="1">E9/10^6</f>
         <v>4.6727499999999997</v>
       </c>
-      <c r="H9" s="1">
-        <f>($D$5-D9)/$D$5</f>
-        <v>1.3666470028085114E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="3">
+        <f t="shared" ref="H9:H15" si="2">($D$5/$D9)</f>
+        <v>1.013855830317838</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -792,19 +863,19 @@
         <v>4487775</v>
       </c>
       <c r="F10">
-        <f>E10/10^3</f>
+        <f t="shared" si="0"/>
         <v>4487.7749999999996</v>
       </c>
       <c r="G10">
-        <f>E10/10^6</f>
+        <f t="shared" si="1"/>
         <v>4.4877750000000001</v>
       </c>
-      <c r="H10" s="1">
-        <f>($D$5-D10)/$D$5</f>
-        <v>5.271126678817397E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0556443510200464</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -818,19 +889,19 @@
         <v>5508284.5</v>
       </c>
       <c r="F11">
-        <f>E11/10^3</f>
+        <f t="shared" si="0"/>
         <v>5508.2844999999998</v>
       </c>
       <c r="G11">
-        <f>E11/10^6</f>
+        <f t="shared" si="1"/>
         <v>5.5082845000000002</v>
       </c>
-      <c r="H11" s="1">
-        <f>($D$5-D11)/$D$5</f>
-        <v>-0.16269990671376575</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="3">
+        <f t="shared" si="2"/>
+        <v>0.86006715423791691</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -844,19 +915,19 @@
         <v>4602908</v>
       </c>
       <c r="F12">
-        <f>E12/10^3</f>
+        <f t="shared" si="0"/>
         <v>4602.9080000000004</v>
       </c>
       <c r="G12">
-        <f>E12/10^6</f>
+        <f t="shared" si="1"/>
         <v>4.6029080000000002</v>
       </c>
-      <c r="H12" s="1">
-        <f>($D$5-D12)/$D$5</f>
-        <v>2.8408869815258725E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0292395318696013</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -870,19 +941,19 @@
         <v>1494246.875</v>
       </c>
       <c r="F13">
-        <f>E13/10^3</f>
+        <f t="shared" si="0"/>
         <v>1494.246875</v>
       </c>
       <c r="G13">
-        <f>E13/10^6</f>
+        <f t="shared" si="1"/>
         <v>1.494246875</v>
       </c>
-      <c r="H13" s="1">
-        <f>($D$5-D13)/$D$5</f>
-        <v>0.68459133543116601</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H13" s="3">
+        <f t="shared" si="2"/>
+        <v>3.1704899463272747</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -896,19 +967,19 @@
         <v>1324022.375</v>
       </c>
       <c r="F14">
-        <f>E14/10^3</f>
+        <f t="shared" si="0"/>
         <v>1324.022375</v>
       </c>
       <c r="G14">
-        <f>E14/10^6</f>
+        <f t="shared" si="1"/>
         <v>1.324022375</v>
       </c>
-      <c r="H14" s="1">
-        <f>($D$5-D14)/$D$5</f>
-        <v>0.72052265000755333</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="3">
+        <f t="shared" si="2"/>
+        <v>3.5781074925285603</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -922,19 +993,19 @@
         <v>1228013.375</v>
       </c>
       <c r="F15">
-        <f>E15/10^3</f>
+        <f t="shared" si="0"/>
         <v>1228.013375</v>
       </c>
       <c r="G15">
-        <f>E15/10^6</f>
+        <f t="shared" si="1"/>
         <v>1.228013375</v>
       </c>
-      <c r="H15" s="1">
-        <f>($D$5-D15)/$D$5</f>
-        <v>0.74078844957073575</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="3">
+        <f t="shared" si="2"/>
+        <v>3.857852778334768</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>18</v>
       </c>
@@ -948,16 +1019,16 @@
         <v>2203241.75</v>
       </c>
       <c r="F16">
-        <f>E16/10^3</f>
+        <f t="shared" si="0"/>
         <v>2203.2417500000001</v>
       </c>
       <c r="G16">
-        <f>E16/10^6</f>
+        <f t="shared" si="1"/>
         <v>2.2032417500000001</v>
       </c>
-      <c r="H16" s="1">
-        <f>($D$3-D16)/$D$3</f>
-        <v>0.61440847582639935</v>
+      <c r="H16" s="3">
+        <f>($D$3/$D16)</f>
+        <v>2.5934180014542565</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -980,7 +1051,7 @@
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -1004,9 +1075,9 @@
         <f>E19/10^6</f>
         <v>2.4849562500000002</v>
       </c>
-      <c r="H19" s="1">
-        <f>($D$3-D19)/$D$3</f>
-        <v>0.56510533132946528</v>
+      <c r="H19" s="3">
+        <f>($D$3/$D19)</f>
+        <v>2.29940735547985</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -1030,9 +1101,9 @@
         <f>E20/10^6</f>
         <v>1.5131645</v>
       </c>
-      <c r="H20" s="1">
-        <f>($D$5-D20)/$D$5</f>
-        <v>0.6805981569949574</v>
+      <c r="H20" s="3">
+        <f>($D$5/$D20)</f>
+        <v>3.1308523162911506</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -1060,22 +1131,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H26"/>
+  <dimension ref="B2:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="64.42578125" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1098,7 +1169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>20</v>
       </c>
@@ -1124,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>20</v>
       </c>
@@ -1150,7 +1221,7 @@
         <v>0.32667673668405772</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -1175,8 +1246,12 @@
         <f>D5/$D$3</f>
         <v>0.50730908673942499</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="3">
+        <f>(Optimized1!$D$5/$D5)</f>
+        <v>4.245282629511455</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -1185,52 +1260,163 @@
         <v>0.83398582342348271</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H26" s="1"/>
     </row>
   </sheetData>

--- a/HarrisCornerDetection/Reports/Board/Timestamps.xlsx
+++ b/HarrisCornerDetection/Reports/Board/Timestamps.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
@@ -11,7 +11,7 @@
     <sheet name="Optimized1" sheetId="1" r:id="rId2"/>
     <sheet name="Optimized2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -116,10 +116,13 @@
     <t>_OPTIMIZATION_CONVOLUTION_002</t>
   </si>
   <si>
-    <t>_OPTIMIZATION_CONVOLUTION_00X_010_02X</t>
-  </si>
-  <si>
-    <t>_OPTIMIZATION_CONVOLUTION_00X_010_02X_GET</t>
+    <t>_OPTIMIZATION_CONVOLUTION_001_010_022</t>
+  </si>
+  <si>
+    <t>_OPTIMIZATION_ORDER_STATISTIC_FILTERING_SPECIALIZED</t>
+  </si>
+  <si>
+    <t>Best of all (001_010_021, Specialized1, GET)</t>
   </si>
 </sst>
 </file>
@@ -163,11 +166,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -262,23 +266,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -314,23 +301,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -663,10 +633,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I26"/>
+  <dimension ref="B2:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:H14"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,19 +803,19 @@
       <c r="D9">
         <v>38959051</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>4672750</v>
       </c>
-      <c r="F9">
-        <f t="shared" ref="F9:F16" si="0">E9/10^3</f>
+      <c r="F9" s="4">
+        <f t="shared" ref="F9:F11" si="0">E9/10^3</f>
         <v>4672.75</v>
       </c>
-      <c r="G9">
-        <f t="shared" ref="G9:G16" si="1">E9/10^6</f>
+      <c r="G9" s="4">
+        <f t="shared" ref="G9:G11" si="1">E9/10^6</f>
         <v>4.6727499999999997</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" ref="H9:H15" si="2">($D$5/$D9)</f>
+        <f t="shared" ref="H9:H11" si="2">($D$5/$D9)</f>
         <v>1.013855830317838</v>
       </c>
     </row>
@@ -859,19 +829,19 @@
       <c r="D10">
         <v>37416826</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>4487775</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
+      <c r="F10" s="4">
+        <f>E10/10^3</f>
         <v>4487.7749999999996</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
+      <c r="G10" s="4">
+        <f>E10/10^6</f>
         <v>4.4877750000000001</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="2"/>
+        <f>($D$5/$D10)</f>
         <v>1.0556443510200464</v>
       </c>
     </row>
@@ -885,19 +855,19 @@
       <c r="D11">
         <v>45925322</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>5508284.5</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
+      <c r="F11" s="4">
+        <f>E11/10^3</f>
         <v>5508.2844999999998</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
+      <c r="G11" s="4">
+        <f>E11/10^6</f>
         <v>5.5082845000000002</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="2"/>
+        <f>($D$5/$D11)</f>
         <v>0.86006715423791691</v>
       </c>
     </row>
@@ -911,19 +881,19 @@
       <c r="D12">
         <v>38376743</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>4602908</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
+      <c r="F12" s="4">
+        <f>E12/10^3</f>
         <v>4602.9080000000004</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
+      <c r="G12" s="4">
+        <f>E12/10^6</f>
         <v>4.6029080000000002</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="2"/>
+        <f>($D$5/$D12)</f>
         <v>1.0292395318696013</v>
       </c>
     </row>
@@ -937,19 +907,19 @@
       <c r="D13">
         <v>12458283</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <v>1494246.875</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
+      <c r="F13" s="4">
+        <f>E13/10^3</f>
         <v>1494.246875</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
+      <c r="G13" s="4">
+        <f>E13/10^6</f>
         <v>1.494246875</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="2"/>
+        <f>($D$5/$D13)</f>
         <v>3.1704899463272747</v>
       </c>
     </row>
@@ -963,19 +933,19 @@
       <c r="D14">
         <v>11039037</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <v>1324022.375</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
+      <c r="F14" s="4">
+        <f>E14/10^3</f>
         <v>1324.022375</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
+      <c r="G14" s="4">
+        <f>E14/10^6</f>
         <v>1.324022375</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="2"/>
+        <f>($D$5/$D14)</f>
         <v>3.5781074925285603</v>
       </c>
     </row>
@@ -989,140 +959,206 @@
       <c r="D15">
         <v>10238561</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <v>1228013.375</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
+      <c r="F15" s="4">
+        <f>E15/10^3</f>
         <v>1228.013375</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
+      <c r="G15" s="4">
+        <f>E15/10^6</f>
         <v>1.228013375</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="2"/>
+        <f>($D$5/$D15)</f>
         <v>3.857852778334768</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16">
-        <v>18369527</v>
-      </c>
-      <c r="E16">
-        <v>2203241.75</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>2203.2417500000001</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>2.2032417500000001</v>
-      </c>
-      <c r="H16" s="3">
-        <f>($D$3/$D16)</f>
-        <v>2.5934180014542565</v>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>37972374</v>
+      </c>
+      <c r="E17" s="4">
+        <v>4554408</v>
+      </c>
+      <c r="F17" s="4">
+        <f>E17/10^3</f>
+        <v>4554.4080000000004</v>
+      </c>
+      <c r="G17" s="4">
+        <f>E17/10^6</f>
+        <v>4.5544079999999996</v>
+      </c>
+      <c r="H17" s="3">
+        <f>($D$5/$D17)</f>
+        <v>1.0401999358797003</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>41255731</v>
+      </c>
+      <c r="E18" s="4">
+        <v>4948509.5</v>
+      </c>
+      <c r="F18" s="4">
+        <f>E18/10^3</f>
+        <v>4948.5095000000001</v>
+      </c>
+      <c r="G18" s="4">
+        <f>E18/10^6</f>
+        <v>4.9485095000000001</v>
+      </c>
+      <c r="H18" s="3">
+        <f>($D$5/$D18)</f>
+        <v>0.95741512857934818</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>20718322</v>
-      </c>
-      <c r="E19">
-        <v>2484956.25</v>
-      </c>
-      <c r="F19">
+        <v>10528736</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1262816.875</v>
+      </c>
+      <c r="F19" s="4">
         <f>E19/10^3</f>
-        <v>2484.9562500000002</v>
-      </c>
-      <c r="G19">
+        <v>1262.816875</v>
+      </c>
+      <c r="G19" s="4">
         <f>E19/10^6</f>
-        <v>2.4849562500000002</v>
+        <v>1.2628168749999999</v>
       </c>
       <c r="H19" s="3">
-        <f>($D$3/$D19)</f>
-        <v>2.29940735547985</v>
+        <f>($D$5/$D19)</f>
+        <v>3.7515292433963583</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20">
-        <v>12616009</v>
-      </c>
-      <c r="E20">
-        <v>1513164.5</v>
-      </c>
-      <c r="F20">
+        <v>9438434</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1132046</v>
+      </c>
+      <c r="F20" s="4">
         <f>E20/10^3</f>
-        <v>1513.1645000000001</v>
-      </c>
-      <c r="G20">
+        <v>1132.046</v>
+      </c>
+      <c r="G20" s="4">
         <f>E20/10^6</f>
-        <v>1.5131645</v>
+        <v>1.1320460000000001</v>
       </c>
       <c r="H20" s="3">
         <f>($D$5/$D20)</f>
+        <v>4.1848956087418738</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>20718322</v>
+      </c>
+      <c r="E24">
+        <v>2484956.25</v>
+      </c>
+      <c r="F24">
+        <f>E24/10^3</f>
+        <v>2484.9562500000002</v>
+      </c>
+      <c r="G24">
+        <f>E24/10^6</f>
+        <v>2.4849562500000002</v>
+      </c>
+      <c r="H24" s="3">
+        <f>($D$3/$D24)</f>
+        <v>2.29940735547985</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>12616009</v>
+      </c>
+      <c r="E25">
+        <v>1513164.5</v>
+      </c>
+      <c r="F25">
+        <f>E25/10^3</f>
+        <v>1513.1645000000001</v>
+      </c>
+      <c r="G25">
+        <f>E25/10^6</f>
+        <v>1.5131645</v>
+      </c>
+      <c r="H25" s="3">
+        <f>($D$5/$D25)</f>
         <v>3.1308523162911506</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1134,7 +1170,7 @@
   <dimension ref="B2:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B18"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,113 +1325,114 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="1"/>
+      <c r="D12">
+        <v>6083310</v>
+      </c>
+      <c r="E12" s="4">
+        <v>729632.375</v>
+      </c>
+      <c r="F12" s="4">
+        <f>E12/10^3</f>
+        <v>729.63237500000002</v>
+      </c>
+      <c r="G12" s="4">
+        <f>E12/10^6</f>
+        <v>0.729632375</v>
+      </c>
+      <c r="H12" s="3">
+        <f>$D12/D12</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="1"/>
+      <c r="D13">
+        <v>4678845</v>
+      </c>
+      <c r="E13" s="4">
+        <v>561180.8125</v>
+      </c>
+      <c r="F13" s="4">
+        <f>E13/10^3</f>
+        <v>561.1808125</v>
+      </c>
+      <c r="G13" s="4">
+        <f>E13/10^6</f>
+        <v>0.56118081249999996</v>
+      </c>
+      <c r="H13" s="3">
+        <f>$D$12/D13</f>
+        <v>1.3001734402400593</v>
+      </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>3603191</v>
+      </c>
+      <c r="E14" s="4">
+        <v>432166.84375</v>
+      </c>
+      <c r="F14" s="4">
+        <f>E14/10^3</f>
+        <v>432.16684375</v>
+      </c>
+      <c r="G14" s="4">
+        <f>E14/10^6</f>
+        <v>0.43216684374999997</v>
+      </c>
+      <c r="H14" s="3">
+        <f>$D$12/D14</f>
+        <v>1.6883118324840398</v>
+      </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" t="s">
-        <v>25</v>
-      </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s">
-        <v>25</v>
-      </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>15753155</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1889433.875</v>
+      </c>
+      <c r="F19">
+        <f>E19/10^3</f>
+        <v>1889.4338749999999</v>
+      </c>
+      <c r="G19">
+        <f>E19/10^6</f>
+        <v>1.8894338749999999</v>
+      </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">

--- a/HarrisCornerDetection/Reports/Board/Timestamps.xlsx
+++ b/HarrisCornerDetection/Reports/Board/Timestamps.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -116,13 +116,22 @@
     <t>_OPTIMIZATION_CONVOLUTION_002</t>
   </si>
   <si>
-    <t>_OPTIMIZATION_CONVOLUTION_001_010_022</t>
-  </si>
-  <si>
     <t>_OPTIMIZATION_ORDER_STATISTIC_FILTERING_SPECIALIZED</t>
   </si>
   <si>
-    <t>Best of all (001_010_021, Specialized1, GET)</t>
+    <t>_OPTIMIZATION_CONVOLUTION_030</t>
+  </si>
+  <si>
+    <t>_OPTIMIZATION_CONVOLUTION_001_010_022_030</t>
+  </si>
+  <si>
+    <t>_OPTIMIZATION_CONVOLUTION_001_010_022_030_GET</t>
+  </si>
+  <si>
+    <t>_OPTIMIZATION_ORDER_STATISTIC_FILTERING_SPECIALIZED_001_GET</t>
+  </si>
+  <si>
+    <t>Best of all (001_010_022_030, Specialized1, GET)</t>
   </si>
 </sst>
 </file>
@@ -166,12 +175,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,15 +643,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I27"/>
+  <dimension ref="B2:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
@@ -743,22 +753,22 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>39498861</v>
+        <v>39541560</v>
       </c>
       <c r="E5">
-        <v>4737494.5</v>
+        <v>4742616</v>
       </c>
       <c r="F5">
         <f>E5/10^3</f>
-        <v>4737.4944999999998</v>
+        <v>4742.616</v>
       </c>
       <c r="G5">
         <f>E5/10^6</f>
-        <v>4.7374945000000004</v>
+        <v>4.7426159999999999</v>
       </c>
       <c r="H5" s="1">
         <f>D5/$D$3</f>
-        <v>0.82911367375497436</v>
+        <v>0.83000996098603308</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -767,7 +777,7 @@
       </c>
       <c r="H6" s="2">
         <f>SUM(H4:H5)</f>
-        <v>0.95680736858557647</v>
+        <v>0.95770365581663519</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -807,16 +817,16 @@
         <v>4672750</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" ref="F9:F11" si="0">E9/10^3</f>
+        <f t="shared" ref="F9" si="0">E9/10^3</f>
         <v>4672.75</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" ref="G9:G11" si="1">E9/10^6</f>
+        <f t="shared" ref="G9" si="1">E9/10^6</f>
         <v>4.6727499999999997</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" ref="H9:H11" si="2">($D$5/$D9)</f>
-        <v>1.013855830317838</v>
+        <f t="shared" ref="H9" si="2">($D$5/$D9)</f>
+        <v>1.0149518272403504</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -833,16 +843,16 @@
         <v>4487775</v>
       </c>
       <c r="F10" s="4">
-        <f>E10/10^3</f>
+        <f t="shared" ref="F10:F15" si="3">E10/10^3</f>
         <v>4487.7749999999996</v>
       </c>
       <c r="G10" s="4">
-        <f>E10/10^6</f>
+        <f t="shared" ref="G10:G15" si="4">E10/10^6</f>
         <v>4.4877750000000001</v>
       </c>
       <c r="H10" s="3">
-        <f>($D$5/$D10)</f>
-        <v>1.0556443510200464</v>
+        <f t="shared" ref="H10:H15" si="5">($D$5/$D10)</f>
+        <v>1.0567855221070863</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -859,16 +869,16 @@
         <v>5508284.5</v>
       </c>
       <c r="F11" s="4">
-        <f>E11/10^3</f>
+        <f t="shared" si="3"/>
         <v>5508.2844999999998</v>
       </c>
       <c r="G11" s="4">
-        <f>E11/10^6</f>
+        <f t="shared" si="4"/>
         <v>5.5082845000000002</v>
       </c>
       <c r="H11" s="3">
-        <f>($D$5/$D11)</f>
-        <v>0.86006715423791691</v>
+        <f t="shared" si="5"/>
+        <v>0.86099690275443252</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -885,16 +895,16 @@
         <v>4602908</v>
       </c>
       <c r="F12" s="4">
-        <f>E12/10^3</f>
+        <f t="shared" si="3"/>
         <v>4602.9080000000004</v>
       </c>
       <c r="G12" s="4">
-        <f>E12/10^6</f>
+        <f t="shared" si="4"/>
         <v>4.6029080000000002</v>
       </c>
       <c r="H12" s="3">
-        <f>($D$5/$D12)</f>
-        <v>1.0292395318696013</v>
+        <f t="shared" si="5"/>
+        <v>1.030352158858296</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -911,16 +921,16 @@
         <v>1494246.875</v>
       </c>
       <c r="F13" s="4">
-        <f>E13/10^3</f>
+        <f t="shared" si="3"/>
         <v>1494.246875</v>
       </c>
       <c r="G13" s="4">
-        <f>E13/10^6</f>
+        <f t="shared" si="4"/>
         <v>1.494246875</v>
       </c>
       <c r="H13" s="3">
-        <f>($D$5/$D13)</f>
-        <v>3.1704899463272747</v>
+        <f t="shared" si="5"/>
+        <v>3.1739173046558662</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -937,16 +947,16 @@
         <v>1324022.375</v>
       </c>
       <c r="F14" s="4">
-        <f>E14/10^3</f>
+        <f t="shared" si="3"/>
         <v>1324.022375</v>
       </c>
       <c r="G14" s="4">
-        <f>E14/10^6</f>
+        <f t="shared" si="4"/>
         <v>1.324022375</v>
       </c>
       <c r="H14" s="3">
-        <f>($D$5/$D14)</f>
-        <v>3.5781074925285603</v>
+        <f t="shared" si="5"/>
+        <v>3.5819754929709902</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -963,16 +973,16 @@
         <v>1228013.375</v>
       </c>
       <c r="F15" s="4">
-        <f>E15/10^3</f>
+        <f t="shared" si="3"/>
         <v>1228.013375</v>
       </c>
       <c r="G15" s="4">
-        <f>E15/10^6</f>
+        <f t="shared" si="4"/>
         <v>1.228013375</v>
       </c>
       <c r="H15" s="3">
-        <f>($D$5/$D15)</f>
-        <v>3.857852778334768</v>
+        <f t="shared" si="5"/>
+        <v>3.8620231886101961</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -998,7 +1008,7 @@
       </c>
       <c r="H17" s="3">
         <f>($D$5/$D17)</f>
-        <v>1.0401999358797003</v>
+        <v>1.0413244112680444</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -1009,22 +1019,22 @@
         <v>9</v>
       </c>
       <c r="D18">
-        <v>41255731</v>
+        <v>38956935</v>
       </c>
       <c r="E18" s="4">
-        <v>4948509.5</v>
+        <v>4672496</v>
       </c>
       <c r="F18" s="4">
         <f>E18/10^3</f>
-        <v>4948.5095000000001</v>
+        <v>4672.4960000000001</v>
       </c>
       <c r="G18" s="4">
         <f>E18/10^6</f>
-        <v>4.9485095000000001</v>
+        <v>4.6724959999999998</v>
       </c>
       <c r="H18" s="3">
         <f>($D$5/$D18)</f>
-        <v>0.95741512857934818</v>
+        <v>1.0150069557576846</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -1050,115 +1060,121 @@
       </c>
       <c r="H19" s="3">
         <f>($D$5/$D19)</f>
-        <v>3.7515292433963583</v>
+        <v>3.7555847159621059</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20">
-        <v>9438434</v>
+        <v>39540788</v>
       </c>
       <c r="E20" s="4">
-        <v>1132046</v>
+        <v>4742523.5</v>
       </c>
       <c r="F20" s="4">
         <f>E20/10^3</f>
-        <v>1132.046</v>
+        <v>4742.5235000000002</v>
       </c>
       <c r="G20" s="4">
         <f>E20/10^6</f>
-        <v>1.1320460000000001</v>
+        <v>4.7425234999999999</v>
       </c>
       <c r="H20" s="3">
         <f>($D$5/$D20)</f>
-        <v>4.1848956087418738</v>
+        <v>1.0000195241430192</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>9112712</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1092979</v>
+      </c>
+      <c r="F21" s="4">
+        <f>E21/10^3</f>
+        <v>1092.979</v>
+      </c>
+      <c r="G21" s="4">
+        <f>E21/10^6</f>
+        <v>1.0929789999999999</v>
+      </c>
+      <c r="H21" s="3">
+        <f>($D$5/$D21)</f>
+        <v>4.339164894051299</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>9114010</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1093134.625</v>
+      </c>
+      <c r="F22" s="4">
+        <f>E22/10^3</f>
+        <v>1093.1346249999999</v>
+      </c>
+      <c r="G22" s="4">
+        <f>E22/10^6</f>
+        <v>1.093134625</v>
+      </c>
+      <c r="H22" s="3">
+        <f>($D$5/$D22)</f>
+        <v>4.3385469184255889</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24">
-        <v>20718322</v>
-      </c>
-      <c r="E24">
-        <v>2484956.25</v>
-      </c>
-      <c r="F24">
-        <f>E24/10^3</f>
-        <v>2484.9562500000002</v>
-      </c>
-      <c r="G24">
-        <f>E24/10^6</f>
-        <v>2.4849562500000002</v>
-      </c>
-      <c r="H24" s="3">
-        <f>($D$3/$D24)</f>
-        <v>2.29940735547985</v>
+        <v>9</v>
+      </c>
+      <c r="D23" s="5">
+        <v>13864507</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1662909.375</v>
+      </c>
+      <c r="F23">
+        <f>E23/10^3</f>
+        <v>1662.909375</v>
+      </c>
+      <c r="G23">
+        <f>E23/10^6</f>
+        <v>1.6629093749999999</v>
+      </c>
+      <c r="H23" s="3">
+        <f>($D$5/$D23)</f>
+        <v>2.8519989928239062</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25">
-        <v>12616009</v>
-      </c>
-      <c r="E25">
-        <v>1513164.5</v>
-      </c>
-      <c r="F25">
-        <f>E25/10^3</f>
-        <v>1513.1645000000001</v>
-      </c>
-      <c r="G25">
-        <f>E25/10^6</f>
-        <v>1.5131645</v>
-      </c>
-      <c r="H25" s="3">
-        <f>($D$5/$D25)</f>
-        <v>3.1308523162911506</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H26" s="1"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1169,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,7 +1300,7 @@
       </c>
       <c r="I5" s="3">
         <f>(Optimized1!$D$5/$D5)</f>
-        <v>4.245282629511455</v>
+        <v>4.2498718586286568</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -1330,7 +1346,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -1407,33 +1423,59 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H15" s="2"/>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>3602934</v>
+      </c>
+      <c r="E15" s="4">
+        <v>432136</v>
+      </c>
+      <c r="F15" s="4">
+        <f>E15/10^3</f>
+        <v>432.13600000000002</v>
+      </c>
+      <c r="G15" s="4">
+        <f>E15/10^6</f>
+        <v>0.43213600000000002</v>
+      </c>
+      <c r="H15" s="3">
+        <f>$D$12/D15</f>
+        <v>1.6884322610405853</v>
+      </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H16" s="1"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
       </c>
       <c r="D19">
-        <v>15753155</v>
+        <v>14820134</v>
       </c>
       <c r="E19" s="4">
-        <v>1889433.875</v>
+        <v>1777527.375</v>
       </c>
       <c r="F19">
         <f>E19/10^3</f>
-        <v>1889.4338749999999</v>
+        <v>1777.5273749999999</v>
       </c>
       <c r="G19">
         <f>E19/10^6</f>
-        <v>1.8894338749999999</v>
-      </c>
-      <c r="H19" s="1"/>
+        <v>1.777527375</v>
+      </c>
+      <c r="H19" s="3">
+        <f>Original!$D$3/D19</f>
+        <v>6.1563303678630703</v>
+      </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H20" s="1"/>
